--- a/biology/Botanique/Leucanthemopsis_alpina/Leucanthemopsis_alpina.xlsx
+++ b/biology/Botanique/Leucanthemopsis_alpina/Leucanthemopsis_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marguerite des Alpes
 Leucanthemopsis alpina, la Marguerite des Alpes, est une espèce de plante à fleurs du genre Leucanthemopsis et de la famille des Asteraceae. 
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysanthemum alpinum L.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante vivace (3 à 15 cm). Sa tige est presque nue, ses feuilles plus ou moins cotonneuses et blanchâtres.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce montagnarde des éboulis ou des rocailles sur des sols siliceux, à des altitudes variant entre 1 800 et 2 800 m. Floraison de juillet à septembre.
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes et Pyrénées.
 </t>
@@ -635,7 +655,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Corse
 </t>
